--- a/Import Data/88x89.xlsx
+++ b/Import Data/88x89.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C22922-5C61-41C3-B988-74B74A21743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21645" yWindow="5190" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="46">
   <si>
     <t>8.8x8.9</t>
   </si>
@@ -155,24 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.87-NaN</t>
-  </si>
-  <si>
-    <t>0.91-NaN</t>
-  </si>
-  <si>
-    <t>0.95-NaN</t>
-  </si>
-  <si>
-    <t>1.00-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -256,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B630" sqref="B630"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -546,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -562,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -585,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -608,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -616,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -633,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -647,7 +698,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -673,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -693,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -719,7 +770,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.5</v>
       </c>
@@ -745,7 +796,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.9</v>
       </c>
@@ -771,7 +822,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.4000000000000004</v>
       </c>
@@ -797,7 +848,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.8</v>
       </c>
@@ -823,7 +874,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7.3</v>
       </c>
@@ -849,7 +900,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.6999999999999993</v>
       </c>
@@ -875,7 +926,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10.199999999999999</v>
       </c>
@@ -901,7 +952,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11.6</v>
       </c>
@@ -927,7 +978,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13.1</v>
       </c>
@@ -953,7 +1004,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14.6</v>
       </c>
@@ -979,7 +1030,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16</v>
       </c>
@@ -1005,7 +1056,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17.5</v>
       </c>
@@ -1031,7 +1082,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18.899999999999999</v>
       </c>
@@ -1057,7 +1108,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20.399999999999999</v>
       </c>
@@ -1083,7 +1134,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21.8</v>
       </c>
@@ -1109,7 +1160,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23.3</v>
       </c>
@@ -1135,7 +1186,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24.7</v>
       </c>
@@ -1161,7 +1212,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26.2</v>
       </c>
@@ -1187,7 +1238,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27.7</v>
       </c>
@@ -1213,7 +1264,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29.1</v>
       </c>
@@ -1239,7 +1290,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30.6</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -1291,7 +1342,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33.5</v>
       </c>
@@ -1317,7 +1368,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34.9</v>
       </c>
@@ -1343,7 +1394,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36.4</v>
       </c>
@@ -1369,7 +1420,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37.799999999999997</v>
       </c>
@@ -1395,7 +1446,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>39.299999999999997</v>
       </c>
@@ -1421,7 +1472,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40.700000000000003</v>
       </c>
@@ -1447,7 +1498,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42.2</v>
       </c>
@@ -1473,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1538,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1559,7 +1610,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.8</v>
       </c>
@@ -1585,7 +1636,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3.6</v>
       </c>
@@ -1611,7 +1662,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.4</v>
       </c>
@@ -1637,7 +1688,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7.3</v>
       </c>
@@ -1663,7 +1714,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9.1</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10.9</v>
       </c>
@@ -1715,7 +1766,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12.7</v>
       </c>
@@ -1741,7 +1792,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14.5</v>
       </c>
@@ -1767,7 +1818,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16.3</v>
       </c>
@@ -1793,7 +1844,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18.2</v>
       </c>
@@ -1819,7 +1870,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -1845,7 +1896,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>21.8</v>
       </c>
@@ -1871,7 +1922,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23.6</v>
       </c>
@@ -1897,7 +1948,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>25.4</v>
       </c>
@@ -1923,7 +1974,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>27.2</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>29.1</v>
       </c>
@@ -1975,7 +2026,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>30.9</v>
       </c>
@@ -2001,7 +2052,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>32.700000000000003</v>
       </c>
@@ -2027,7 +2078,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34.5</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>36.299999999999997</v>
       </c>
@@ -2079,7 +2130,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>38.1</v>
       </c>
@@ -2105,7 +2156,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>40</v>
       </c>
@@ -2131,7 +2182,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>41.8</v>
       </c>
@@ -2157,7 +2208,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>43.6</v>
       </c>
@@ -2183,7 +2234,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45.4</v>
       </c>
@@ -2209,7 +2260,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>47.2</v>
       </c>
@@ -2235,7 +2286,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>49</v>
       </c>
@@ -2261,7 +2312,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50.9</v>
       </c>
@@ -2287,7 +2338,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>52.7</v>
       </c>
@@ -2313,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2378,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2399,7 +2450,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.2000000000000002</v>
       </c>
@@ -2425,7 +2476,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4.4000000000000004</v>
       </c>
@@ -2451,7 +2502,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6.5</v>
       </c>
@@ -2477,7 +2528,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8.6999999999999993</v>
       </c>
@@ -2503,7 +2554,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10.9</v>
       </c>
@@ -2529,7 +2580,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13.1</v>
       </c>
@@ -2555,7 +2606,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15.2</v>
       </c>
@@ -2581,7 +2632,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>17.399999999999999</v>
       </c>
@@ -2607,7 +2658,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>19.600000000000001</v>
       </c>
@@ -2633,7 +2684,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>21.8</v>
       </c>
@@ -2659,7 +2710,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23.9</v>
       </c>
@@ -2685,7 +2736,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26.1</v>
       </c>
@@ -2711,7 +2762,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>28.3</v>
       </c>
@@ -2737,7 +2788,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>30.5</v>
       </c>
@@ -2763,7 +2814,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>32.6</v>
       </c>
@@ -2789,7 +2840,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>34.799999999999997</v>
       </c>
@@ -2815,7 +2866,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37</v>
       </c>
@@ -2841,7 +2892,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>39.200000000000003</v>
       </c>
@@ -2867,7 +2918,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>41.3</v>
       </c>
@@ -2893,7 +2944,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>43.5</v>
       </c>
@@ -2919,7 +2970,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>45.7</v>
       </c>
@@ -2945,7 +2996,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>47.9</v>
       </c>
@@ -2971,7 +3022,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>50</v>
       </c>
@@ -2997,7 +3048,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>52.2</v>
       </c>
@@ -3023,7 +3074,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>54.4</v>
       </c>
@@ -3049,7 +3100,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56.6</v>
       </c>
@@ -3075,7 +3126,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>58.7</v>
       </c>
@@ -3101,7 +3152,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>60.9</v>
       </c>
@@ -3127,7 +3178,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>63.1</v>
       </c>
@@ -3153,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3167,7 +3218,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3193,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3213,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3239,7 +3290,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2.5</v>
       </c>
@@ -3265,7 +3316,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5.0999999999999996</v>
       </c>
@@ -3291,7 +3342,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7.6</v>
       </c>
@@ -3317,7 +3368,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10.1</v>
       </c>
@@ -3343,7 +3394,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12.7</v>
       </c>
@@ -3369,7 +3420,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15.2</v>
       </c>
@@ -3395,7 +3446,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>17.7</v>
       </c>
@@ -3421,7 +3472,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20.3</v>
       </c>
@@ -3447,7 +3498,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22.8</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>25.4</v>
       </c>
@@ -3499,7 +3550,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>27.9</v>
       </c>
@@ -3525,7 +3576,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>30.4</v>
       </c>
@@ -3551,7 +3602,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>33</v>
       </c>
@@ -3577,7 +3628,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>35.5</v>
       </c>
@@ -3603,7 +3654,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>38</v>
       </c>
@@ -3629,7 +3680,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>40.6</v>
       </c>
@@ -3655,7 +3706,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>43.1</v>
       </c>
@@ -3681,7 +3732,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>45.6</v>
       </c>
@@ -3707,7 +3758,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>48.2</v>
       </c>
@@ -3733,7 +3784,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>50.7</v>
       </c>
@@ -3759,7 +3810,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>53.2</v>
       </c>
@@ -3785,7 +3836,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>55.8</v>
       </c>
@@ -3811,7 +3862,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>58.3</v>
       </c>
@@ -3837,7 +3888,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>60.8</v>
       </c>
@@ -3863,7 +3914,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>63.4</v>
       </c>
@@ -3889,7 +3940,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>65.900000000000006</v>
       </c>
@@ -3915,7 +3966,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>68.5</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>71</v>
       </c>
@@ -3967,7 +4018,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>73.5</v>
       </c>
@@ -3993,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4007,7 +4058,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4033,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4053,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4079,7 +4130,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.9</v>
       </c>
@@ -4105,7 +4156,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5.8</v>
       </c>
@@ -4131,7 +4182,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8.6999999999999993</v>
       </c>
@@ -4157,7 +4208,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11.6</v>
       </c>
@@ -4183,7 +4234,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14.5</v>
       </c>
@@ -4209,7 +4260,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17.399999999999999</v>
       </c>
@@ -4235,7 +4286,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>20.3</v>
       </c>
@@ -4261,7 +4312,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>23.1</v>
       </c>
@@ -4287,7 +4338,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>26</v>
       </c>
@@ -4313,7 +4364,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>28.9</v>
       </c>
@@ -4339,7 +4390,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>31.8</v>
       </c>
@@ -4365,7 +4416,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>34.700000000000003</v>
       </c>
@@ -4391,7 +4442,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>37.6</v>
       </c>
@@ -4417,7 +4468,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>40.5</v>
       </c>
@@ -4443,7 +4494,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>43.4</v>
       </c>
@@ -4469,7 +4520,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>46.3</v>
       </c>
@@ -4495,7 +4546,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>49.2</v>
       </c>
@@ -4521,7 +4572,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>52.1</v>
       </c>
@@ -4547,7 +4598,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>55</v>
       </c>
@@ -4573,7 +4624,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>57.9</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>60.8</v>
       </c>
@@ -4625,7 +4676,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>63.7</v>
       </c>
@@ -4651,7 +4702,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>66.599999999999994</v>
       </c>
@@ -4677,7 +4728,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>69.400000000000006</v>
       </c>
@@ -4703,7 +4754,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72.3</v>
       </c>
@@ -4729,7 +4780,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>75.2</v>
       </c>
@@ -4755,7 +4806,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>78.099999999999994</v>
       </c>
@@ -4781,7 +4832,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>81</v>
       </c>
@@ -4807,7 +4858,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>83.9</v>
       </c>
@@ -4833,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4847,7 +4898,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4873,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4893,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4919,7 +4970,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.2</v>
       </c>
@@ -4945,7 +4996,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6.5</v>
       </c>
@@ -4971,7 +5022,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9.6999999999999993</v>
       </c>
@@ -4997,7 +5048,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -5023,7 +5074,7 @@
         <v>1.411</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>16.2</v>
       </c>
@@ -5049,7 +5100,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>19.5</v>
       </c>
@@ -5075,7 +5126,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>22.7</v>
       </c>
@@ -5101,7 +5152,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>26</v>
       </c>
@@ -5127,7 +5178,7 @@
         <v>1.423</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>29.2</v>
       </c>
@@ -5153,7 +5204,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>32.4</v>
       </c>
@@ -5179,7 +5230,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>35.700000000000003</v>
       </c>
@@ -5205,7 +5256,7 @@
         <v>1.423</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>38.9</v>
       </c>
@@ -5231,7 +5282,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42.2</v>
       </c>
@@ -5257,7 +5308,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>45.4</v>
       </c>
@@ -5283,7 +5334,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>48.7</v>
       </c>
@@ -5309,7 +5360,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>51.9</v>
       </c>
@@ -5335,7 +5386,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>55.2</v>
       </c>
@@ -5361,7 +5412,7 @@
         <v>1.284</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>58.4</v>
       </c>
@@ -5387,7 +5438,7 @@
         <v>1.2070000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>61.7</v>
       </c>
@@ -5413,7 +5464,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>64.900000000000006</v>
       </c>
@@ -5439,7 +5490,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>68.099999999999994</v>
       </c>
@@ -5465,7 +5516,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>71.400000000000006</v>
       </c>
@@ -5491,7 +5542,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>74.599999999999994</v>
       </c>
@@ -5517,7 +5568,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>77.900000000000006</v>
       </c>
@@ -5543,7 +5594,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>81.099999999999994</v>
       </c>
@@ -5569,7 +5620,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>84.4</v>
       </c>
@@ -5595,7 +5646,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>87.6</v>
       </c>
@@ -5621,7 +5672,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>90.9</v>
       </c>
@@ -5647,7 +5698,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>94.1</v>
       </c>
@@ -5673,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5687,7 +5738,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5713,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5733,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5759,7 +5810,7 @@
         <v>1.726</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3.6</v>
       </c>
@@ -5785,7 +5836,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7.2</v>
       </c>
@@ -5811,7 +5862,7 @@
         <v>1.7330000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>10.8</v>
       </c>
@@ -5837,7 +5888,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.4</v>
       </c>
@@ -5863,7 +5914,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>18</v>
       </c>
@@ -5889,7 +5940,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>21.6</v>
       </c>
@@ -5915,7 +5966,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>25.2</v>
       </c>
@@ -5941,7 +5992,7 @@
         <v>1.752</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>28.8</v>
       </c>
@@ -5967,7 +6018,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>32.299999999999997</v>
       </c>
@@ -5993,7 +6044,7 @@
         <v>1.756</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>35.9</v>
       </c>
@@ -6019,7 +6070,7 @@
         <v>1.756</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>39.5</v>
       </c>
@@ -6045,7 +6096,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>43.1</v>
       </c>
@@ -6071,7 +6122,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46.7</v>
       </c>
@@ -6097,7 +6148,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>50.3</v>
       </c>
@@ -6123,7 +6174,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>53.9</v>
       </c>
@@ -6149,7 +6200,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>57.5</v>
       </c>
@@ -6175,7 +6226,7 @@
         <v>1.6639999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>61.1</v>
       </c>
@@ -6201,7 +6252,7 @@
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>64.7</v>
       </c>
@@ -6227,7 +6278,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>68.3</v>
       </c>
@@ -6253,7 +6304,7 @@
         <v>1.3839999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>71.900000000000006</v>
       </c>
@@ -6279,7 +6330,7 @@
         <v>1.2569999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>75.5</v>
       </c>
@@ -6305,7 +6356,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>79.099999999999994</v>
       </c>
@@ -6331,7 +6382,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>82.7</v>
       </c>
@@ -6357,7 +6408,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>86.3</v>
       </c>
@@ -6383,7 +6434,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>89.9</v>
       </c>
@@ -6409,7 +6460,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>93.5</v>
       </c>
@@ -6435,7 +6486,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>97</v>
       </c>
@@ -6461,7 +6512,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>100.6</v>
       </c>
@@ -6487,7 +6538,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>104.2</v>
       </c>
@@ -6513,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6527,7 +6578,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6553,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6573,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6599,7 +6650,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -6625,7 +6676,7 @@
         <v>2.089</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>7.9</v>
       </c>
@@ -6651,7 +6702,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>11.9</v>
       </c>
@@ -6677,7 +6728,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>15.8</v>
       </c>
@@ -6703,7 +6754,7 @@
         <v>2.1019999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>19.8</v>
       </c>
@@ -6729,7 +6780,7 @@
         <v>2.1070000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>23.7</v>
       </c>
@@ -6755,7 +6806,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>27.7</v>
       </c>
@@ -6781,7 +6832,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>31.6</v>
       </c>
@@ -6807,7 +6858,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>35.6</v>
       </c>
@@ -6833,7 +6884,7 @@
         <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>39.5</v>
       </c>
@@ -6859,7 +6910,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>43.5</v>
       </c>
@@ -6885,7 +6936,7 @@
         <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>47.4</v>
       </c>
@@ -6911,7 +6962,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>51.4</v>
       </c>
@@ -6937,7 +6988,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>55.3</v>
       </c>
@@ -6963,7 +7014,7 @@
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>59.3</v>
       </c>
@@ -6989,7 +7040,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>63.2</v>
       </c>
@@ -7015,7 +7066,7 @@
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>67.2</v>
       </c>
@@ -7041,7 +7092,7 @@
         <v>1.9419999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>71.2</v>
       </c>
@@ -7067,7 +7118,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>75.099999999999994</v>
       </c>
@@ -7093,7 +7144,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>79.099999999999994</v>
       </c>
@@ -7119,7 +7170,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>83</v>
       </c>
@@ -7145,7 +7196,7 @@
         <v>1.371</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>87</v>
       </c>
@@ -7171,7 +7222,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>90.9</v>
       </c>
@@ -7197,7 +7248,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>94.9</v>
       </c>
@@ -7223,7 +7274,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>98.8</v>
       </c>
@@ -7249,7 +7300,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>102.8</v>
       </c>
@@ -7275,7 +7326,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>106.7</v>
       </c>
@@ -7301,7 +7352,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>110.7</v>
       </c>
@@ -7327,7 +7378,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>114.6</v>
       </c>
@@ -7353,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7367,7 +7418,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7393,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7413,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7439,7 +7490,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4.3</v>
       </c>
@@ -7465,7 +7516,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>8.6</v>
       </c>
@@ -7491,7 +7542,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13</v>
       </c>
@@ -7517,7 +7568,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17.3</v>
       </c>
@@ -7543,7 +7594,7 @@
         <v>2.4969999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>21.6</v>
       </c>
@@ -7569,7 +7620,7 @@
         <v>2.5030000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>25.9</v>
       </c>
@@ -7595,7 +7646,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>30.2</v>
       </c>
@@ -7621,7 +7672,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>34.6</v>
       </c>
@@ -7647,7 +7698,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>38.9</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>43.2</v>
       </c>
@@ -7699,7 +7750,7 @@
         <v>2.5249999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>47.5</v>
       </c>
@@ -7725,7 +7776,7 @@
         <v>2.5249999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>51.9</v>
       </c>
@@ -7751,7 +7802,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>56.2</v>
       </c>
@@ -7777,7 +7828,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>60.5</v>
       </c>
@@ -7803,7 +7854,7 @@
         <v>2.5019999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>64.8</v>
       </c>
@@ -7829,7 +7880,7 @@
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>69.099999999999994</v>
       </c>
@@ -7855,7 +7906,7 @@
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>73.5</v>
       </c>
@@ -7881,7 +7932,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>77.8</v>
       </c>
@@ -7907,7 +7958,7 @@
         <v>2.1880000000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>82.1</v>
       </c>
@@ -7933,7 +7984,7 @@
         <v>2.0110000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>86.4</v>
       </c>
@@ -7959,7 +8010,7 @@
         <v>1.823</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>90.7</v>
       </c>
@@ -7985,7 +8036,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>95.1</v>
       </c>
@@ -8011,7 +8062,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>99.4</v>
       </c>
@@ -8037,7 +8088,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>103.7</v>
       </c>
@@ -8063,7 +8114,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>108</v>
       </c>
@@ -8089,7 +8140,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>112.3</v>
       </c>
@@ -8115,7 +8166,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>116.7</v>
       </c>
@@ -8141,7 +8192,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>121</v>
       </c>
@@ -8167,7 +8218,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>125.3</v>
       </c>
@@ -8193,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8207,7 +8258,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8233,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8279,7 +8330,7 @@
         <v>2.903</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4.7</v>
       </c>
@@ -8305,7 +8356,7 @@
         <v>2.9079999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>9.4</v>
       </c>
@@ -8331,7 +8382,7 @@
         <v>2.9129999999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>14.1</v>
       </c>
@@ -8357,7 +8408,7 @@
         <v>2.919</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>18.7</v>
       </c>
@@ -8383,7 +8434,7 @@
         <v>2.9260000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>23.4</v>
       </c>
@@ -8409,7 +8460,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>28.1</v>
       </c>
@@ -8435,7 +8486,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>32.799999999999997</v>
       </c>
@@ -8461,7 +8512,7 @@
         <v>2.9470000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>37.5</v>
       </c>
@@ -8487,7 +8538,7 @@
         <v>2.9540000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>42.2</v>
       </c>
@@ -8513,7 +8564,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>46.9</v>
       </c>
@@ -8539,7 +8590,7 @@
         <v>2.9620000000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>51.6</v>
       </c>
@@ -8565,7 +8616,7 @@
         <v>2.9620000000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>56.2</v>
       </c>
@@ -8591,7 +8642,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>60.9</v>
       </c>
@@ -8617,7 +8668,7 @@
         <v>2.9529999999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>65.599999999999994</v>
       </c>
@@ -8643,7 +8694,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>70.3</v>
       </c>
@@ -8669,7 +8720,7 @@
         <v>2.915</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>75</v>
       </c>
@@ -8695,7 +8746,7 @@
         <v>2.8530000000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>79.7</v>
       </c>
@@ -8721,7 +8772,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>84.4</v>
       </c>
@@ -8747,7 +8798,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>89.1</v>
       </c>
@@ -8773,7 +8824,7 @@
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>93.7</v>
       </c>
@@ -8799,7 +8850,7 @@
         <v>2.1509999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>98.4</v>
       </c>
@@ -8825,7 +8876,7 @@
         <v>1.9259999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>103.1</v>
       </c>
@@ -8851,7 +8902,7 @@
         <v>1.6990000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>107.8</v>
       </c>
@@ -8877,7 +8928,7 @@
         <v>1.4670000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>112.5</v>
       </c>
@@ -8903,7 +8954,7 @@
         <v>1.232</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>117.2</v>
       </c>
@@ -8929,7 +8980,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>121.9</v>
       </c>
@@ -8955,7 +9006,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>126.6</v>
       </c>
@@ -8981,7 +9032,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>131.19999999999999</v>
       </c>
@@ -9007,7 +9058,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>135.9</v>
       </c>
@@ -9033,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9047,7 +9098,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9073,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9093,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9119,7 +9170,7 @@
         <v>3.3620000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5</v>
       </c>
@@ -9145,7 +9196,7 @@
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>10.1</v>
       </c>
@@ -9171,7 +9222,7 @@
         <v>3.3740000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>15.1</v>
       </c>
@@ -9197,7 +9248,7 @@
         <v>3.3809999999999998</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>20.2</v>
       </c>
@@ -9223,7 +9274,7 @@
         <v>3.3879999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>25.2</v>
       </c>
@@ -9249,7 +9300,7 @@
         <v>3.3959999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>30.3</v>
       </c>
@@ -9275,7 +9326,7 @@
         <v>3.4039999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>35.299999999999997</v>
       </c>
@@ -9301,7 +9352,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>40.4</v>
       </c>
@@ -9327,7 +9378,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>45.4</v>
       </c>
@@ -9353,7 +9404,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>50.5</v>
       </c>
@@ -9379,7 +9430,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>55.5</v>
       </c>
@@ -9405,7 +9456,7 @@
         <v>3.4359999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>60.6</v>
       </c>
@@ -9431,7 +9482,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>65.599999999999994</v>
       </c>
@@ -9457,7 +9508,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>70.7</v>
       </c>
@@ -9483,7 +9534,7 @@
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>75.7</v>
       </c>
@@ -9509,7 +9560,7 @@
         <v>3.3919999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>80.8</v>
       </c>
@@ -9535,7 +9586,7 @@
         <v>3.331</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>85.8</v>
       </c>
@@ -9561,7 +9612,7 @@
         <v>3.2090000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>90.9</v>
       </c>
@@ -9587,7 +9638,7 @@
         <v>3.0230000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>95.9</v>
       </c>
@@ -9613,7 +9664,7 @@
         <v>2.7749999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>101</v>
       </c>
@@ -9639,7 +9690,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>106</v>
       </c>
@@ -9665,7 +9716,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>111.1</v>
       </c>
@@ -9691,7 +9742,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>116.1</v>
       </c>
@@ -9717,7 +9768,7 @@
         <v>1.7190000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>121.2</v>
       </c>
@@ -9743,7 +9794,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>126.2</v>
       </c>
@@ -9769,7 +9820,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>131.30000000000001</v>
       </c>
@@ -9795,7 +9846,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>136.30000000000001</v>
       </c>
@@ -9821,7 +9872,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>141.4</v>
       </c>
@@ -9847,7 +9898,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>146.4</v>
       </c>
@@ -9873,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9887,7 +9938,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9913,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9933,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9959,7 +10010,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>5.8</v>
       </c>
@@ -9985,7 +10036,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>11.5</v>
       </c>
@@ -10011,7 +10062,7 @@
         <v>4.4509999999999996</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>17.3</v>
       </c>
@@ -10037,7 +10088,7 @@
         <v>4.4619999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>23</v>
       </c>
@@ -10063,7 +10114,7 @@
         <v>4.4740000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>28.8</v>
       </c>
@@ -10089,7 +10140,7 @@
         <v>4.4880000000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>34.6</v>
       </c>
@@ -10115,7 +10166,7 @@
         <v>4.5019999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>40.299999999999997</v>
       </c>
@@ -10141,7 +10192,7 @@
         <v>4.5170000000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>46.1</v>
       </c>
@@ -10167,7 +10218,7 @@
         <v>4.532</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>51.8</v>
       </c>
@@ -10193,7 +10244,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>57.6</v>
       </c>
@@ -10219,7 +10270,7 @@
         <v>4.5579999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>63.4</v>
       </c>
@@ -10245,7 +10296,7 @@
         <v>4.5640000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>69.099999999999994</v>
       </c>
@@ -10271,7 +10322,7 @@
         <v>4.5650000000000004</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>74.900000000000006</v>
       </c>
@@ -10297,7 +10348,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>80.599999999999994</v>
       </c>
@@ -10323,7 +10374,7 @@
         <v>4.5439999999999996</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>86.4</v>
       </c>
@@ -10349,7 +10400,7 @@
         <v>4.516</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>92.1</v>
       </c>
@@ -10375,7 +10426,7 @@
         <v>4.4630000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>97.9</v>
       </c>
@@ -10401,7 +10452,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>103.7</v>
       </c>
@@ -10427,7 +10478,7 @@
         <v>4.0650000000000004</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>109.4</v>
       </c>
@@ -10453,7 +10504,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>115.2</v>
       </c>
@@ -10479,7 +10530,7 @@
         <v>3.3879999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>120.9</v>
       </c>
@@ -10505,7 +10556,7 @@
         <v>3.0409999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>126.7</v>
       </c>
@@ -10531,7 +10582,7 @@
         <v>2.6840000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>132.5</v>
       </c>
@@ -10557,7 +10608,7 @@
         <v>2.3210000000000002</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>138.19999999999999</v>
       </c>
@@ -10583,7 +10634,7 @@
         <v>1.952</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>144</v>
       </c>
@@ -10609,7 +10660,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>149.69999999999999</v>
       </c>
@@ -10635,7 +10686,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>155.5</v>
       </c>
@@ -10661,7 +10712,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>161.30000000000001</v>
       </c>
@@ -10687,7 +10738,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>167</v>
       </c>
@@ -10713,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10727,7 +10778,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10753,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10773,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10799,7 +10850,7 @@
         <v>5.101</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>6.1</v>
       </c>
@@ -10825,7 +10876,7 @@
         <v>5.1139999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>12.2</v>
       </c>
@@ -10851,7 +10902,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>18.399999999999999</v>
       </c>
@@ -10877,7 +10928,7 @@
         <v>5.1429999999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>24.5</v>
       </c>
@@ -10903,7 +10954,7 @@
         <v>5.1580000000000004</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>30.6</v>
       </c>
@@ -10929,7 +10980,7 @@
         <v>5.1740000000000004</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>36.700000000000003</v>
       </c>
@@ -10955,7 +11006,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>42.8</v>
       </c>
@@ -10981,7 +11032,7 @@
         <v>5.2060000000000004</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>49</v>
       </c>
@@ -11007,7 +11058,7 @@
         <v>5.2210000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>55.1</v>
       </c>
@@ -11033,7 +11084,7 @@
         <v>5.2359999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>61.2</v>
       </c>
@@ -11059,7 +11110,7 @@
         <v>5.2460000000000004</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>67.3</v>
       </c>
@@ -11085,7 +11136,7 @@
         <v>5.2489999999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>73.400000000000006</v>
       </c>
@@ -11111,7 +11162,7 @@
         <v>5.2450000000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>79.599999999999994</v>
       </c>
@@ -11137,7 +11188,7 @@
         <v>5.2320000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>85.7</v>
       </c>
@@ -11163,7 +11214,7 @@
         <v>5.2069999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>91.8</v>
       </c>
@@ -11189,7 +11240,7 @@
         <v>5.1669999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>97.9</v>
       </c>
@@ -11215,7 +11266,7 @@
         <v>5.1050000000000004</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>104</v>
       </c>
@@ -11241,7 +11292,7 @@
         <v>4.9480000000000004</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>110.2</v>
       </c>
@@ -11267,7 +11318,7 @@
         <v>4.665</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>116.3</v>
       </c>
@@ -11293,7 +11344,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>122.4</v>
       </c>
@@ -11319,7 +11370,7 @@
         <v>3.8879999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>128.5</v>
       </c>
@@ -11345,7 +11396,7 @@
         <v>3.4889999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>134.6</v>
       </c>
@@ -11371,7 +11422,7 @@
         <v>3.081</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>140.80000000000001</v>
       </c>
@@ -11397,7 +11448,7 @@
         <v>2.6640000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>146.9</v>
       </c>
@@ -11423,7 +11474,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>153</v>
       </c>
@@ -11449,7 +11500,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>159.1</v>
       </c>
@@ -11475,7 +11526,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>165.2</v>
       </c>
@@ -11501,7 +11552,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>171.3</v>
       </c>
@@ -11527,7 +11578,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>177.5</v>
       </c>
@@ -11553,7 +11604,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11567,7 +11618,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11593,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11613,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11639,7 +11690,7 @@
         <v>5.8289999999999997</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>6.5</v>
       </c>
@@ -11665,7 +11716,7 @@
         <v>5.8470000000000004</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>13</v>
       </c>
@@ -11691,7 +11742,7 @@
         <v>5.867</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>19.5</v>
       </c>
@@ -11717,7 +11768,7 @@
         <v>5.8860000000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>25.9</v>
       </c>
@@ -11743,7 +11794,7 @@
         <v>5.9059999999999997</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>32.4</v>
       </c>
@@ -11769,7 +11820,7 @@
         <v>5.9240000000000004</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>38.9</v>
       </c>
@@ -11795,7 +11846,7 @@
         <v>5.9429999999999996</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>45.4</v>
       </c>
@@ -11821,7 +11872,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>51.9</v>
       </c>
@@ -11847,7 +11898,7 @@
         <v>5.9749999999999996</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>58.4</v>
       </c>
@@ -11873,7 +11924,7 @@
         <v>5.9870000000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>64.8</v>
       </c>
@@ -11899,7 +11950,7 @@
         <v>5.9960000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>71.3</v>
       </c>
@@ -11925,7 +11976,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>77.8</v>
       </c>
@@ -11951,7 +12002,7 @@
         <v>5.9880000000000004</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>84.3</v>
       </c>
@@ -11977,7 +12028,7 @@
         <v>5.9669999999999996</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>90.8</v>
       </c>
@@ -12003,7 +12054,7 @@
         <v>5.9320000000000004</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>97.3</v>
       </c>
@@ -12029,7 +12080,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>103.8</v>
       </c>
@@ -12055,7 +12106,7 @@
         <v>5.8049999999999997</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>110.2</v>
       </c>
@@ -12081,7 +12132,7 @@
         <v>5.6539999999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>116.7</v>
       </c>
@@ -12107,7 +12158,7 @@
         <v>5.3280000000000003</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>123.2</v>
       </c>
@@ -12133,7 +12184,7 @@
         <v>4.8810000000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>129.69999999999999</v>
       </c>
@@ -12159,7 +12210,7 @@
         <v>4.4340000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>136.19999999999999</v>
       </c>
@@ -12185,7 +12236,7 @@
         <v>3.9790000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>142.69999999999999</v>
       </c>
@@ -12211,7 +12262,7 @@
         <v>3.5150000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>149.1</v>
       </c>
@@ -12237,7 +12288,7 @@
         <v>3.0390000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>155.6</v>
       </c>
@@ -12263,7 +12314,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>162.1</v>
       </c>
@@ -12289,7 +12340,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>168.6</v>
       </c>
@@ -12315,7 +12366,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>175.1</v>
       </c>
@@ -12341,7 +12392,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>181.6</v>
       </c>
@@ -12367,7 +12418,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>188.1</v>
       </c>
@@ -12393,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12407,7 +12458,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12433,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12453,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12479,7 +12530,7 @@
         <v>6.6210000000000004</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>6.8</v>
       </c>
@@ -12505,7 +12556,7 @@
         <v>6.6459999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>13.7</v>
       </c>
@@ -12531,7 +12582,7 @@
         <v>6.6710000000000003</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>20.5</v>
       </c>
@@ -12557,7 +12608,7 @@
         <v>6.6970000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>27.4</v>
       </c>
@@ -12583,7 +12634,7 @@
         <v>6.7210000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>34.200000000000003</v>
       </c>
@@ -12609,7 +12660,7 @@
         <v>6.7439999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>41.1</v>
       </c>
@@ -12635,7 +12686,7 @@
         <v>6.7649999999999997</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>47.9</v>
       </c>
@@ -12661,7 +12712,7 @@
         <v>6.7839999999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>54.8</v>
       </c>
@@ -12687,7 +12738,7 @@
         <v>6.7990000000000004</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>61.6</v>
       </c>
@@ -12713,7 +12764,7 @@
         <v>6.8090000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>68.5</v>
       </c>
@@ -12739,7 +12790,7 @@
         <v>6.8150000000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>75.3</v>
       </c>
@@ -12765,7 +12816,7 @@
         <v>6.8140000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>82.2</v>
       </c>
@@ -12791,7 +12842,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>89</v>
       </c>
@@ -12817,7 +12868,7 @@
         <v>6.7690000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>95.9</v>
       </c>
@@ -12843,7 +12894,7 @@
         <v>6.7240000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>102.7</v>
       </c>
@@ -12869,7 +12920,7 @@
         <v>6.6589999999999998</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>109.5</v>
       </c>
@@ -12895,7 +12946,7 @@
         <v>6.569</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>116.4</v>
       </c>
@@ -12921,7 +12972,7 @@
         <v>6.4420000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>123.2</v>
       </c>
@@ -12947,7 +12998,7 @@
         <v>6.0810000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>130.1</v>
       </c>
@@ -12973,7 +13024,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>136.9</v>
       </c>
@@ -12999,7 +13050,7 @@
         <v>5.0519999999999996</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>143.80000000000001</v>
       </c>
@@ -13025,7 +13076,7 @@
         <v>4.532</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>150.6</v>
       </c>
@@ -13051,7 +13102,7 @@
         <v>4.0030000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>157.5</v>
       </c>
@@ -13077,7 +13128,7 @@
         <v>3.464</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>164.3</v>
       </c>
@@ -13103,7 +13154,7 @@
         <v>2.9140000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>171.2</v>
       </c>
@@ -13129,7 +13180,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>178</v>
       </c>
@@ -13155,7 +13206,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>184.9</v>
       </c>
@@ -13181,7 +13232,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>191.7</v>
       </c>
@@ -13207,7 +13258,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>198.6</v>
       </c>
@@ -13233,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13247,7 +13298,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13273,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13293,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13319,7 +13370,7 @@
         <v>7.4980000000000002</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>7.2</v>
       </c>
@@ -13345,7 +13396,7 @@
         <v>7.5309999999999997</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>14.4</v>
       </c>
@@ -13371,7 +13422,7 @@
         <v>7.5640000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>21.6</v>
       </c>
@@ -13397,7 +13448,7 @@
         <v>7.5960000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>28.8</v>
       </c>
@@ -13423,7 +13474,7 @@
         <v>7.6269999999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>35.9</v>
       </c>
@@ -13449,7 +13500,7 @@
         <v>7.6559999999999997</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>43.1</v>
       </c>
@@ -13475,7 +13526,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>50.3</v>
       </c>
@@ -13501,7 +13552,7 @@
         <v>7.702</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>57.5</v>
       </c>
@@ -13527,7 +13578,7 @@
         <v>7.7160000000000002</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>64.7</v>
       </c>
@@ -13553,7 +13604,7 @@
         <v>7.726</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>71.900000000000006</v>
       </c>
@@ -13579,7 +13630,7 @@
         <v>7.7279999999999998</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>79.099999999999994</v>
       </c>
@@ -13605,7 +13656,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>86.3</v>
       </c>
@@ -13631,7 +13682,7 @@
         <v>7.702</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>93.5</v>
       </c>
@@ -13657,7 +13708,7 @@
         <v>7.6660000000000004</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>100.7</v>
       </c>
@@ -13683,7 +13734,7 @@
         <v>7.6109999999999998</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>107.8</v>
       </c>
@@ -13709,7 +13760,7 @@
         <v>7.5339999999999998</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>115</v>
       </c>
@@ -13735,7 +13786,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>122.2</v>
       </c>
@@ -13761,7 +13812,7 @@
         <v>7.2969999999999997</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>129.4</v>
       </c>
@@ -13787,7 +13838,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>136.6</v>
       </c>
@@ -13813,7 +13864,7 @@
         <v>6.3929999999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>143.80000000000001</v>
       </c>
@@ -13839,7 +13890,7 @@
         <v>5.8049999999999997</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>151</v>
       </c>
@@ -13865,7 +13916,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>158.19999999999999</v>
       </c>
@@ -13891,7 +13942,7 @@
         <v>4.6070000000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>165.4</v>
       </c>
@@ -13917,7 +13968,7 @@
         <v>3.9940000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>172.6</v>
       </c>
@@ -13943,7 +13994,7 @@
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>179.7</v>
       </c>
@@ -13969,7 +14020,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>186.9</v>
       </c>
@@ -13995,7 +14046,7 @@
         <v>2.077</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>194.1</v>
       </c>
@@ -14021,7 +14072,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>201.3</v>
       </c>
@@ -14047,7 +14098,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>208.5</v>
       </c>
@@ -14073,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14087,7 +14138,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14113,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14133,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14159,7 +14210,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>7.5</v>
       </c>
@@ -14185,7 +14236,7 @@
         <v>8.5749999999999993</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>15.1</v>
       </c>
@@ -14211,7 +14262,7 @@
         <v>8.6210000000000004</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>22.6</v>
       </c>
@@ -14237,7 +14288,7 @@
         <v>8.6649999999999991</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>30.2</v>
       </c>
@@ -14263,7 +14314,7 @@
         <v>8.7089999999999996</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>37.700000000000003</v>
       </c>
@@ -14289,7 +14340,7 @@
         <v>8.7479999999999993</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>45.3</v>
       </c>
@@ -14315,7 +14366,7 @@
         <v>8.7829999999999995</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>52.8</v>
       </c>
@@ -14341,7 +14392,7 @@
         <v>8.8170000000000002</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>60.4</v>
       </c>
@@ -14367,7 +14418,7 @@
         <v>8.843</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>67.900000000000006</v>
       </c>
@@ -14393,7 +14444,7 @@
         <v>8.8640000000000008</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>75.5</v>
       </c>
@@ -14419,7 +14470,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>83</v>
       </c>
@@ -14445,7 +14496,7 @@
         <v>8.8919999999999995</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>90.6</v>
       </c>
@@ -14471,7 +14522,7 @@
         <v>8.9090000000000007</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>98.1</v>
       </c>
@@ -14497,7 +14548,7 @@
         <v>8.9120000000000008</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>105.7</v>
       </c>
@@ -14523,7 +14574,7 @@
         <v>8.8710000000000004</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>113.2</v>
       </c>
@@ -14549,7 +14600,7 @@
         <v>8.7919999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>120.8</v>
       </c>
@@ -14575,7 +14626,7 @@
         <v>8.6579999999999995</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>128.30000000000001</v>
       </c>
@@ -14601,7 +14652,7 @@
         <v>8.4440000000000008</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>135.9</v>
       </c>
@@ -14627,7 +14678,7 @@
         <v>8.1880000000000006</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>143.4</v>
       </c>
@@ -14653,63 +14704,59 @@
         <v>7.5570000000000004</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>151</v>
       </c>
-      <c r="B630" t="s">
-        <v>46</v>
-      </c>
-      <c r="C630" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D630" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E630" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F630" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G630" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8">
+      <c r="B630">
+        <v>0.87</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630">
+        <v>0</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>158.5</v>
       </c>
-      <c r="B631" t="s">
-        <v>47</v>
-      </c>
-      <c r="C631" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D631" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E631" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F631" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G631" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8">
+      <c r="B631">
+        <v>0.91</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>0</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631">
+        <v>0</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>166.1</v>
       </c>
@@ -14735,7 +14782,7 @@
         <v>5.4009999999999998</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>173.6</v>
       </c>
@@ -14761,7 +14808,7 @@
         <v>4.6159999999999997</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>181.1</v>
       </c>
@@ -14787,7 +14834,7 @@
         <v>3.9009999999999998</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>188.7</v>
       </c>
@@ -14813,7 +14860,7 @@
         <v>3.1480000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>196.2</v>
       </c>
@@ -14839,7 +14886,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>203.8</v>
       </c>
@@ -14865,7 +14912,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>211.3</v>
       </c>
@@ -14891,7 +14938,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>218.9</v>
       </c>
@@ -14917,7 +14964,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14931,7 +14978,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14957,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14977,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -15003,7 +15050,7 @@
         <v>10.342000000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>7.9</v>
       </c>
@@ -15029,7 +15076,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>15.8</v>
       </c>
@@ -15055,7 +15102,7 @@
         <v>10.473000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>23.8</v>
       </c>
@@ -15081,7 +15128,7 @@
         <v>10.529</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>31.7</v>
       </c>
@@ -15107,7 +15154,7 @@
         <v>10.564</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>39.6</v>
       </c>
@@ -15133,7 +15180,7 @@
         <v>10.577999999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>47.5</v>
       </c>
@@ -15159,7 +15206,7 @@
         <v>10.571</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>55.4</v>
       </c>
@@ -15185,7 +15232,7 @@
         <v>10.516999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>63.3</v>
       </c>
@@ -15211,7 +15258,7 @@
         <v>10.462</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>71.3</v>
       </c>
@@ -15237,7 +15284,7 @@
         <v>10.457000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>79.2</v>
       </c>
@@ -15263,7 +15310,7 @@
         <v>10.374000000000001</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>87.1</v>
       </c>
@@ -15289,7 +15336,7 @@
         <v>10.284000000000001</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>95</v>
       </c>
@@ -15315,7 +15362,7 @@
         <v>10.141999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>102.9</v>
       </c>
@@ -15341,7 +15388,7 @@
         <v>10.074999999999999</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>110.8</v>
       </c>
@@ -15367,7 +15414,7 @@
         <v>9.9879999999999995</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>118.8</v>
       </c>
@@ -15393,7 +15440,7 @@
         <v>9.8689999999999998</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>126.7</v>
       </c>
@@ -15419,7 +15466,7 @@
         <v>9.7170000000000005</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>134.6</v>
       </c>
@@ -15445,7 +15492,7 @@
         <v>9.5359999999999996</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>142.5</v>
       </c>
@@ -15471,7 +15518,7 @@
         <v>9.3290000000000006</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>150.4</v>
       </c>
@@ -15497,7 +15544,7 @@
         <v>8.7650000000000006</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>158.4</v>
       </c>
@@ -15523,7 +15570,7 @@
         <v>8.2170000000000005</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>166.3</v>
       </c>
@@ -15549,63 +15596,59 @@
         <v>7.5519999999999996</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>174.2</v>
       </c>
-      <c r="B669" t="s">
-        <v>48</v>
-      </c>
-      <c r="C669" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D669" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E669" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F669" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G669" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="670" spans="1:8">
+      <c r="B669">
+        <v>0.95</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669">
+        <v>0</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>182.1</v>
       </c>
-      <c r="B670" t="s">
-        <v>49</v>
-      </c>
-      <c r="C670" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D670" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E670" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F670" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G670" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="671" spans="1:8">
+      <c r="B670">
+        <v>1</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+      <c r="D670">
+        <v>0</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>0</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>190</v>
       </c>
@@ -15631,7 +15674,7 @@
         <v>4.7729999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>197.9</v>
       </c>
@@ -15657,7 +15700,7 @@
         <v>3.8439999999999999</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>205.9</v>
       </c>
@@ -15683,7 +15726,7 @@
         <v>2.9390000000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>213.8</v>
       </c>
@@ -15709,7 +15752,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>221.7</v>
       </c>
@@ -15735,7 +15778,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>229.6</v>
       </c>
@@ -15761,7 +15804,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15775,7 +15818,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15801,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15821,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15847,7 +15890,7 @@
         <v>13.426</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>9.5</v>
       </c>
@@ -15873,7 +15916,7 @@
         <v>13.512</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>18.899999999999999</v>
       </c>
@@ -15899,7 +15942,7 @@
         <v>13.701000000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>28.4</v>
       </c>
@@ -15925,7 +15968,7 @@
         <v>13.952</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>37.9</v>
       </c>
@@ -15951,7 +15994,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>47.3</v>
       </c>
@@ -15977,7 +16020,7 @@
         <v>14.182</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>56.8</v>
       </c>
@@ -16003,7 +16046,7 @@
         <v>14.349</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>66.3</v>
       </c>
@@ -16029,7 +16072,7 @@
         <v>14.211</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>75.7</v>
       </c>
@@ -16055,7 +16098,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>85.2</v>
       </c>
@@ -16081,7 +16124,7 @@
         <v>14.047000000000001</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>94.7</v>
       </c>
@@ -16107,7 +16150,7 @@
         <v>13.836</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>104.1</v>
       </c>
@@ -16133,7 +16176,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>113.6</v>
       </c>
@@ -16159,7 +16202,7 @@
         <v>13.257</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>123.1</v>
       </c>
@@ -16185,7 +16228,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>132.5</v>
       </c>
@@ -16211,7 +16254,7 @@
         <v>12.861000000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>142</v>
       </c>
@@ -16237,7 +16280,7 @@
         <v>12.589</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>151.5</v>
       </c>
@@ -16263,7 +16306,7 @@
         <v>12.263999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>160.9</v>
       </c>
@@ -16289,7 +16332,7 @@
         <v>11.914999999999999</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>170.4</v>
       </c>
@@ -16315,7 +16358,7 @@
         <v>11.433999999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>179.9</v>
       </c>
@@ -16341,7 +16384,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>189.4</v>
       </c>
@@ -16367,7 +16410,7 @@
         <v>9.5139999999999993</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>198.8</v>
       </c>
@@ -16393,7 +16436,7 @@
         <v>8.6379999999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>208.3</v>
       </c>
@@ -16419,7 +16462,7 @@
         <v>7.3680000000000003</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>217.8</v>
       </c>
@@ -16445,7 +16488,7 @@
         <v>5.968</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>227.2</v>
       </c>
@@ -16471,7 +16514,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>236.7</v>
       </c>
@@ -16497,7 +16540,7 @@
         <v>3.5880000000000001</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>246.2</v>
       </c>
@@ -16523,7 +16566,7 @@
         <v>3.7410000000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>255.6</v>
       </c>
@@ -16549,7 +16592,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>265.10000000000002</v>
       </c>
@@ -16575,7 +16618,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>274.60000000000002</v>
       </c>
@@ -16608,24 +16651,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
